--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55447.10199870946</v>
+        <v>-61682.4194978644</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25841374.97493688</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>88.18804051771195</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>273.5374354446149</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -803,7 +803,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035088</v>
+        <v>153.3187614035089</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.3785108036302</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>291.6115384509264</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.56278694884526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>6.482881398164117</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>192.2057777343344</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>232.7624148762762</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.56278694884526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.7607592415071</v>
+        <v>213.8346063160182</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>341.599878905958</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>129.4972427124794</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F12" t="n">
-        <v>82.55</v>
+        <v>82.55000000000001</v>
       </c>
       <c r="G12" t="n">
         <v>84.53123883647795</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>12.95827676142951</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>2.793841993449066</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.2509084593699</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>120.3716221032459</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H15" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>200.8228705612713</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>138.4691063921946</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>113.1395912237401</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>159.1426556065884</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>21.07970350946914</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>8.129390960577833</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>46.68188763447793</v>
       </c>
       <c r="F20" t="n">
-        <v>34.40898431582585</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>154.434771144087</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2289,25 +2289,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>221.5244986450882</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>158.8196214132819</v>
       </c>
       <c r="Y23" t="n">
-        <v>403.5981807261092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>152.9189507365545</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>231.8945831608844</v>
       </c>
       <c r="C26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>24.07382947181798</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>40.45989720046762</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -2854,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>347.3637975681711</v>
+        <v>22.02916591738796</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.1733109772903</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>347.3637975681711</v>
       </c>
       <c r="G32" t="n">
-        <v>220.439704612525</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>3.995850236862398</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>94.70287214872404</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>325.6887097661881</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>188.7439202587701</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1128872655202599</v>
+        <v>126.3557127580855</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>84.64198284368223</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>347.3637975681711</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>12.95827676142962</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>7.747418622277563</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3717,19 +3717,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>67.65538200560648</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>129.084621233348</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>12.59031016622634</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>5.24693002461455</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>75.59164485614899</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>129.4972427124794</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>93.07576098670755</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4155,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.5867542297959</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.601755817686</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>412.1526519641617</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4330,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>310.2441084446538</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.794921203953</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1131.794921203953</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>1131.794921203953</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>462.52534286434</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C5" t="n">
-        <v>33.94366860160834</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D5" t="n">
-        <v>33.94366860160834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y5" t="n">
-        <v>462.52534286434</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4649,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.9570914377655</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C7" t="n">
-        <v>386.9570914377655</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4731,13 +4731,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X7" t="n">
-        <v>614.3767621236573</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.9570914377655</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>462.52534286434</v>
+        <v>269.0572189816853</v>
       </c>
       <c r="C8" t="n">
-        <v>462.52534286434</v>
+        <v>269.0572189816853</v>
       </c>
       <c r="D8" t="n">
         <v>33.94366860160834</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>695.3567894665931</v>
       </c>
       <c r="Y8" t="n">
-        <v>462.52534286434</v>
+        <v>695.3567894665931</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.4397056785397</v>
+        <v>523.1146084662527</v>
       </c>
       <c r="C10" t="n">
-        <v>711.8779941617646</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4965,19 +4965,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>269.215608100497</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>269.215608100497</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V10" t="n">
-        <v>1348.284728811235</v>
+        <v>1459.771056951427</v>
       </c>
       <c r="W10" t="n">
-        <v>1076.258324397527</v>
+        <v>1187.744652537719</v>
       </c>
       <c r="X10" t="n">
-        <v>1076.258324397527</v>
+        <v>942.3528978711315</v>
       </c>
       <c r="Y10" t="n">
-        <v>1076.258324397527</v>
+        <v>714.9332271852397</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>863.6257189419966</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C11" t="n">
-        <v>863.6257189419966</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D11" t="n">
-        <v>863.6257189419966</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E11" t="n">
-        <v>863.6257189419966</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F11" t="n">
-        <v>435.7582893512044</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H11" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5044,16 +5044,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N11" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5068,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U11" t="n">
-        <v>1613.531556264254</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V11" t="n">
-        <v>1268.481173530963</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W11" t="n">
-        <v>863.6257189419966</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X11" t="n">
-        <v>863.6257189419966</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y11" t="n">
-        <v>863.6257189419966</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5126,16 +5126,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>807.508379929692</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>634.9466684129169</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F13" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G13" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H13" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
@@ -5229,22 +5229,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1270.644793662241</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U13" t="n">
-        <v>1257.555625216353</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V13" t="n">
-        <v>970.6001170867833</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W13" t="n">
-        <v>698.5737126730747</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X13" t="n">
-        <v>453.1819580064872</v>
+        <v>1226.746669334571</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.7622873205955</v>
+        <v>999.3269986486791</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>724.4716545351282</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C14" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D14" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E14" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U14" t="n">
-        <v>1613.531556264254</v>
+        <v>1233.42841663086</v>
       </c>
       <c r="V14" t="n">
-        <v>1250.914606198081</v>
+        <v>870.8114665646866</v>
       </c>
       <c r="W14" t="n">
-        <v>846.059151609114</v>
+        <v>870.8114665646866</v>
       </c>
       <c r="X14" t="n">
-        <v>724.4716545351282</v>
+        <v>870.8114665646866</v>
       </c>
       <c r="Y14" t="n">
-        <v>724.4716545351282</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5345,10 +5345,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.5287154383295</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C16" t="n">
-        <v>376.5287154383295</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D16" t="n">
-        <v>210.6507226398521</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5472,16 +5472,16 @@
         <v>1270.644793662241</v>
       </c>
       <c r="V16" t="n">
-        <v>1067.793409256917</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W16" t="n">
-        <v>795.7670048432083</v>
+        <v>998.6183892485328</v>
       </c>
       <c r="X16" t="n">
-        <v>795.7670048432083</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="Y16" t="n">
-        <v>568.3473341573166</v>
+        <v>858.7506050139928</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.4906125312521</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="C17" t="n">
-        <v>323.4906125312521</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D17" t="n">
-        <v>323.4906125312521</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E17" t="n">
-        <v>323.4906125312521</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F17" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
         <v>33.94366860160834</v>
@@ -5545,22 +5545,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T17" t="n">
-        <v>1499.249140886739</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U17" t="n">
-        <v>1499.249140886739</v>
+        <v>1232.714171958921</v>
       </c>
       <c r="V17" t="n">
-        <v>1136.632190820565</v>
+        <v>870.0972218927473</v>
       </c>
       <c r="W17" t="n">
-        <v>731.7767362315986</v>
+        <v>870.0972218927473</v>
       </c>
       <c r="X17" t="n">
-        <v>731.7767362315986</v>
+        <v>870.0972218927473</v>
       </c>
       <c r="Y17" t="n">
-        <v>323.4906125312521</v>
+        <v>461.8110981924006</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
@@ -5600,16 +5600,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>195.1384727187784</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C19" t="n">
-        <v>195.1384727187784</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D19" t="n">
-        <v>195.1384727187784</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E19" t="n">
-        <v>195.1384727187784</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F19" t="n">
-        <v>195.1384727187784</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G19" t="n">
-        <v>195.1384727187784</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H19" t="n">
-        <v>55.23629840915294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
@@ -5679,13 +5679,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M19" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N19" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
         <v>1181.483761245743</v>
@@ -5706,19 +5706,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U19" t="n">
-        <v>1418.750429333523</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.794921203953</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W19" t="n">
-        <v>859.7685167902448</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="X19" t="n">
-        <v>614.3767621236573</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y19" t="n">
-        <v>386.9570914377655</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>926.2803563138972</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C20" t="n">
-        <v>497.6986820511655</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="D20" t="n">
-        <v>69.11700778843385</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="E20" t="n">
-        <v>69.11700778843385</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F20" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G20" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5755,19 +5755,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
         <v>1107.976466382457</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V20" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W20" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X20" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y20" t="n">
-        <v>926.2803563138972</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>679.1093267936133</v>
+        <v>688.7058834404251</v>
       </c>
       <c r="C22" t="n">
-        <v>506.5476152768382</v>
+        <v>516.14417192365</v>
       </c>
       <c r="D22" t="n">
-        <v>506.5476152768382</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E22" t="n">
-        <v>506.5476152768382</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F22" t="n">
-        <v>329.8405612385944</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G22" t="n">
         <v>173.8458429112338</v>
@@ -5919,13 +5919,13 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>1233.544589050298</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>1233.544589050298</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
-        <v>1233.544589050298</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
         <v>1528.990655216085</v>
@@ -5937,25 +5937,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T22" t="n">
-        <v>1516.524240083786</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U22" t="n">
-        <v>1238.091239336891</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V22" t="n">
-        <v>951.1357312073217</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W22" t="n">
-        <v>679.1093267936133</v>
+        <v>1157.859757950536</v>
       </c>
       <c r="X22" t="n">
-        <v>679.1093267936133</v>
+        <v>912.4680032839485</v>
       </c>
       <c r="Y22" t="n">
-        <v>679.1093267936133</v>
+        <v>688.7058834404251</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>863.2089295691367</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C23" t="n">
-        <v>863.2089295691367</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2089295691367</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E23" t="n">
-        <v>863.2089295691367</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F23" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
         <v>33.94366860160834</v>
@@ -5992,19 +5992,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
         <v>1107.976466382457</v>
@@ -6019,22 +6019,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.183430080417</v>
+        <v>1316.69234294004</v>
       </c>
       <c r="Y23" t="n">
-        <v>1289.508500054044</v>
+        <v>1316.69234294004</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1113.00182921349</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C25" t="n">
-        <v>940.4401176967148</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D25" t="n">
-        <v>774.5621248982375</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E25" t="n">
-        <v>604.8041211489747</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F25" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>452.1535503695694</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M25" t="n">
-        <v>689.2685070454004</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N25" t="n">
-        <v>1109.321405990304</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O25" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
         <v>1528.990655216085</v>
@@ -6171,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T25" t="n">
-        <v>1516.524240083786</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="U25" t="n">
-        <v>1516.524240083786</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="V25" t="n">
-        <v>1229.568731954216</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W25" t="n">
-        <v>1229.568731954216</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X25" t="n">
-        <v>1229.568731954216</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y25" t="n">
-        <v>1229.568731954216</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>915.4240165935545</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="C26" t="n">
-        <v>486.8423423308228</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="D26" t="n">
-        <v>486.8423423308228</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="E26" t="n">
-        <v>58.26066806809115</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F26" t="n">
-        <v>58.26066806809115</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6226,22 +6226,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K26" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L26" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M26" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N26" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O26" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V26" t="n">
-        <v>1334.566480014244</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W26" t="n">
-        <v>1334.566480014244</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X26" t="n">
-        <v>915.4240165935545</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y26" t="n">
-        <v>915.4240165935545</v>
+        <v>985.1782054369463</v>
       </c>
     </row>
     <row r="27">
@@ -6287,10 +6287,10 @@
         <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
-        <v>338.5686635760968</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E27" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
         <v>161.0644105192121</v>
@@ -6311,16 +6311,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1024.341879988165</v>
+        <v>247.3739631491588</v>
       </c>
       <c r="C28" t="n">
-        <v>851.7801684713901</v>
+        <v>74.81225163238372</v>
       </c>
       <c r="D28" t="n">
-        <v>685.9021756729128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E28" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F28" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G28" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
         <v>33.94366860160834</v>
@@ -6387,13 +6387,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L28" t="n">
-        <v>33.94366860160834</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M28" t="n">
-        <v>453.9965675465116</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N28" t="n">
         <v>761.8145120199619</v>
@@ -6408,28 +6408,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T28" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U28" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V28" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.971924059632</v>
+        <v>720.185388501638</v>
       </c>
       <c r="X28" t="n">
-        <v>1443.580169393044</v>
+        <v>474.7936338350505</v>
       </c>
       <c r="Y28" t="n">
-        <v>1216.160498707152</v>
+        <v>247.3739631491588</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G29" t="n">
         <v>323.0738231583921</v>
@@ -6463,19 +6463,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
         <v>687.9235674375537</v>
@@ -6490,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V29" t="n">
-        <v>1075.344177331261</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W29" t="n">
-        <v>724.4716545351282</v>
+        <v>749.3733936432999</v>
       </c>
       <c r="X29" t="n">
-        <v>724.4716545351282</v>
+        <v>749.3733936432999</v>
       </c>
       <c r="Y29" t="n">
-        <v>724.4716545351282</v>
+        <v>749.3733936432999</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,22 +6530,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J30" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
         <v>1159.957753041174</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.94366860160834</v>
+        <v>851.8941960123195</v>
       </c>
       <c r="C31" t="n">
-        <v>33.94366860160834</v>
+        <v>682.0221647221273</v>
       </c>
       <c r="D31" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E31" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H31" t="n">
         <v>33.94366860160834</v>
@@ -6621,19 +6621,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K31" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6645,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T31" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U31" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V31" t="n">
-        <v>885.9154747824084</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W31" t="n">
-        <v>613.8890703687</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X31" t="n">
-        <v>368.4973157021125</v>
+        <v>1271.132485417198</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.0776450162207</v>
+        <v>1043.712814731307</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>974.3218657166036</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C32" t="n">
-        <v>545.7401914538719</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="D32" t="n">
-        <v>545.7401914538719</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="E32" t="n">
-        <v>545.7401914538719</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="F32" t="n">
-        <v>545.7401914538719</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G32" t="n">
         <v>323.0738231583921</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T32" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U32" t="n">
-        <v>1393.464329137293</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V32" t="n">
-        <v>1393.464329137293</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W32" t="n">
-        <v>1393.464329137293</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X32" t="n">
-        <v>974.3218657166036</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y32" t="n">
-        <v>974.3218657166036</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6785,19 +6785,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q33" t="n">
         <v>1580.010651986078</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>679.1093267936133</v>
+        <v>777.6525504900546</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1093267936133</v>
+        <v>605.0908389732796</v>
       </c>
       <c r="D34" t="n">
-        <v>513.231333995136</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="E34" t="n">
-        <v>343.4733302458732</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F34" t="n">
-        <v>343.4733302458732</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G34" t="n">
-        <v>177.8820552717009</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H34" t="n">
-        <v>37.97988096207541</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N34" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6882,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T34" t="n">
-        <v>1516.524240083786</v>
+        <v>1442.282594561521</v>
       </c>
       <c r="U34" t="n">
-        <v>1238.091239336891</v>
+        <v>1442.282594561521</v>
       </c>
       <c r="V34" t="n">
-        <v>951.1357312073217</v>
+        <v>1442.282594561521</v>
       </c>
       <c r="W34" t="n">
-        <v>679.1093267936133</v>
+        <v>1442.282594561521</v>
       </c>
       <c r="X34" t="n">
-        <v>679.1093267936133</v>
+        <v>1196.890839894934</v>
       </c>
       <c r="Y34" t="n">
-        <v>679.1093267936133</v>
+        <v>969.4711692090418</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="C35" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D35" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E35" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F35" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G35" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H35" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6970,19 +6970,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1393.464329137293</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V35" t="n">
-        <v>1030.847379071119</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W35" t="n">
-        <v>625.9919244821526</v>
+        <v>442.6465816748149</v>
       </c>
       <c r="X35" t="n">
-        <v>625.9919244821526</v>
+        <v>442.6465816748149</v>
       </c>
       <c r="Y35" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>851.7801684713901</v>
+        <v>973.0996549038641</v>
       </c>
       <c r="C37" t="n">
-        <v>851.7801684713901</v>
+        <v>800.5379433870891</v>
       </c>
       <c r="D37" t="n">
-        <v>685.9021756729128</v>
+        <v>634.6599505886118</v>
       </c>
       <c r="E37" t="n">
-        <v>516.14417192365</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F37" t="n">
-        <v>339.4371178854062</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G37" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H37" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
@@ -7104,13 +7104,13 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>813.4916901053949</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="N37" t="n">
-        <v>813.4916901053949</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="O37" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="P37" t="n">
         <v>1528.990655216085</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S37" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T37" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U37" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V37" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W37" t="n">
-        <v>1516.410212542856</v>
+        <v>1410.310028289439</v>
       </c>
       <c r="X37" t="n">
-        <v>1271.018457876269</v>
+        <v>1164.918273622851</v>
       </c>
       <c r="Y37" t="n">
-        <v>1043.598787190377</v>
+        <v>1164.918273622851</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>724.4716545351282</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C38" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D38" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E38" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F38" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G38" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7201,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1437.961127397434</v>
+        <v>1307.967376769937</v>
       </c>
       <c r="V38" t="n">
-        <v>1075.344177331261</v>
+        <v>1307.967376769937</v>
       </c>
       <c r="W38" t="n">
-        <v>1075.344177331261</v>
+        <v>1307.967376769937</v>
       </c>
       <c r="X38" t="n">
-        <v>724.4716545351282</v>
+        <v>888.8249133492478</v>
       </c>
       <c r="Y38" t="n">
-        <v>724.4716545351282</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.03283704749686</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="C40" t="n">
-        <v>47.03283704749686</v>
+        <v>554.1123945636301</v>
       </c>
       <c r="D40" t="n">
-        <v>47.03283704749686</v>
+        <v>388.2344017651528</v>
       </c>
       <c r="E40" t="n">
-        <v>47.03283704749686</v>
+        <v>218.4763980158901</v>
       </c>
       <c r="F40" t="n">
-        <v>33.94366860160834</v>
+        <v>41.76934397764629</v>
       </c>
       <c r="G40" t="n">
-        <v>33.94366860160834</v>
+        <v>41.76934397764629</v>
       </c>
       <c r="H40" t="n">
         <v>33.94366860160834</v>
@@ -7338,16 +7338,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N40" t="n">
-        <v>1235.38760622724</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O40" t="n">
-        <v>1235.38760622724</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
         <v>1528.990655216085</v>
@@ -7356,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.644793662241</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V40" t="n">
-        <v>983.6892855326716</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W40" t="n">
-        <v>711.6628811189632</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="X40" t="n">
-        <v>466.2711264523757</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="Y40" t="n">
-        <v>238.851455766484</v>
+        <v>726.6741060804052</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>724.8884439079882</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="C41" t="n">
-        <v>724.8884439079882</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="D41" t="n">
-        <v>724.8884439079882</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="E41" t="n">
-        <v>724.8884439079882</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="F41" t="n">
-        <v>724.8884439079882</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="G41" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7414,19 +7414,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
         <v>1107.976466382457</v>
@@ -7441,22 +7441,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V41" t="n">
-        <v>855.2769502042993</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W41" t="n">
-        <v>724.8884439079882</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X41" t="n">
-        <v>724.8884439079882</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y41" t="n">
-        <v>724.8884439079882</v>
+        <v>102.2824383042412</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>641.6303871312145</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="C43" t="n">
-        <v>469.0686756144395</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D43" t="n">
-        <v>469.0686756144395</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E43" t="n">
-        <v>299.3106718651768</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F43" t="n">
-        <v>122.603617826933</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G43" t="n">
-        <v>122.603617826933</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H43" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M43" t="n">
-        <v>857.4612819097326</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O43" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1691.883500762625</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T43" t="n">
-        <v>1446.00405434108</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U43" t="n">
-        <v>1446.00405434108</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V43" t="n">
-        <v>1159.04854621151</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W43" t="n">
-        <v>887.0221417978021</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X43" t="n">
-        <v>641.6303871312145</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="Y43" t="n">
-        <v>641.6303871312145</v>
+        <v>864.4976534877803</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>967.1647586523851</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C44" t="n">
-        <v>967.1647586523851</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D44" t="n">
-        <v>890.8095618279922</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E44" t="n">
-        <v>462.2278875652606</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F44" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G44" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
         <v>33.94366860160834</v>
@@ -7651,19 +7651,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P44" t="n">
         <v>1107.976466382457</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>1393.464329137293</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V44" t="n">
-        <v>1393.464329137293</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W44" t="n">
-        <v>1393.464329137293</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X44" t="n">
-        <v>1393.464329137293</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y44" t="n">
-        <v>1393.464329137293</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7733,16 +7733,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P45" t="n">
         <v>1159.957753041174</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.00182921349</v>
+        <v>606.0147495907747</v>
       </c>
       <c r="C46" t="n">
-        <v>940.4401176967148</v>
+        <v>433.4530380739997</v>
       </c>
       <c r="D46" t="n">
-        <v>774.5621248982375</v>
+        <v>433.4530380739997</v>
       </c>
       <c r="E46" t="n">
-        <v>604.8041211489747</v>
+        <v>433.4530380739997</v>
       </c>
       <c r="F46" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G46" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H46" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>91.74450617142992</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>509.954387939391</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M46" t="n">
-        <v>509.954387939391</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N46" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O46" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
         <v>1697.183430080417</v>
@@ -7836,22 +7836,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T46" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U46" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V46" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W46" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X46" t="n">
-        <v>1516.524240083786</v>
+        <v>1025.253038995654</v>
       </c>
       <c r="Y46" t="n">
-        <v>1304.820447932477</v>
+        <v>797.8333683097619</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8218,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8379,16 +8379,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8613,22 +8613,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8692,7 +8692,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8774,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -9248,19 +9248,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9403,22 +9403,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -9567,16 +9567,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9640,7 +9640,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>239.5100572483141</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>236.2898988798406</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9959,19 +9959,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10035,16 +10035,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>310.9272166398487</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10433,7 +10433,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10752,16 +10752,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10986,19 +10986,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11062,22 +11062,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>424.2958575201044</v>
@@ -11381,19 +11381,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -11454,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22549,22 +22549,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>309.1958125452568</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>130.6658270187282</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.52192172816706</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>130.4250363291322</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -22843,16 +22843,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>356.6404755144978</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.7363314723284</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>32.93969624469844</v>
       </c>
     </row>
     <row r="8">
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>198.7882721010237</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23074,7 +23074,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>356.6404755144978</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23184,19 +23184,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -23238,16 +23238,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>96.32519380676678</v>
+        <v>70.25134673225566</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23269,16 +23269,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>17.39090165955372</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>271.3096573305976</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23436,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>262.6903939779962</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1439951264726</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>15.37917119678335</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>294.5794166832364</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23712,16 +23712,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>83.26308248700255</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>104.468730727727</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23743,16 +23743,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>104.7269636319517</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>97.48742404956491</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>66.69364622360227</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>261.1767494089935</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>382.7551097588098</v>
       </c>
       <c r="F20" t="n">
-        <v>389.1797709790584</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>9.500591080343611</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>3.620975333944585</v>
       </c>
     </row>
     <row r="23">
@@ -24214,13 +24214,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -24259,7 +24259,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -24271,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>256.1314173732005</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.6050817372338884</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>90.50170122077475</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>190.1419916191743</v>
       </c>
       <c r="C26" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>373.3100235911508</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.7593156700249</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -24694,7 +24694,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>53.44310247490591</v>
+        <v>378.7777341256891</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>2.662783424317013</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24928,10 +24928,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>76.22495772671323</v>
       </c>
       <c r="G32" t="n">
-        <v>176.9441484504437</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.77749949620902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>148.7177798086053</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>75.11819027688892</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>215.459342204573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.1932531040511</v>
+        <v>142.9504276114858</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25405,10 +25405,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>171.988096812471</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>67.58724121831131</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>161.9817067364317</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>130.7557339442517</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>329.7284710573622</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>271.722278809729</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>158.245784235381</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.4020249903687</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>355.9590421211509</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>271.3096573305976</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.86422251115378</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -26088,10 +26088,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.5587197492369</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>367349.3078678091</v>
+        <v>367349.3078678092</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>367349.307867809</v>
+        <v>367349.3078678092</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>367349.3078678091</v>
+        <v>367349.3078678092</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367349.3078678091</v>
+        <v>367349.3078678092</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>367349.3078678092</v>
+        <v>367349.3078678091</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367349.3078678091</v>
+        <v>367349.307867809</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>367349.3078678091</v>
+        <v>367349.307867809</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>367349.3078678092</v>
+        <v>367349.3078678091</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>367349.307867809</v>
+        <v>367349.3078678091</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>367349.3078678091</v>
+        <v>367349.3078678092</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="C2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="D2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="E2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="F2" t="n">
         <v>90151.75317155513</v>
@@ -26331,31 +26331,31 @@
         <v>90151.75317155513</v>
       </c>
       <c r="H2" t="n">
-        <v>90151.75317155512</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="I2" t="n">
-        <v>90151.75317155512</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="J2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="K2" t="n">
+        <v>90151.75317155514</v>
+      </c>
+      <c r="L2" t="n">
         <v>90151.75317155513</v>
       </c>
-      <c r="L2" t="n">
-        <v>90151.75317155512</v>
-      </c>
       <c r="M2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="N2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="O2" t="n">
+        <v>90151.75317155513</v>
+      </c>
+      <c r="P2" t="n">
         <v>90151.75317155514</v>
-      </c>
-      <c r="P2" t="n">
-        <v>90151.75317155512</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37160.80836782806</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="C4" t="n">
         <v>37160.80836782805</v>
@@ -26438,10 +26438,10 @@
         <v>37160.80836782805</v>
       </c>
       <c r="I4" t="n">
-        <v>37160.80836782806</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="J4" t="n">
-        <v>37160.80836782806</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="K4" t="n">
         <v>37160.80836782805</v>
@@ -26456,7 +26456,7 @@
         <v>37160.80836782805</v>
       </c>
       <c r="O4" t="n">
-        <v>37160.80836782806</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="P4" t="n">
         <v>37160.80836782805</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148625.1439932052</v>
+        <v>-149364.5006051209</v>
       </c>
       <c r="C6" t="n">
-        <v>-6433.843333495264</v>
+        <v>-7173.199945410933</v>
       </c>
       <c r="D6" t="n">
-        <v>-6433.843333495264</v>
+        <v>-7173.199945410918</v>
       </c>
       <c r="E6" t="n">
-        <v>27193.75666650473</v>
+        <v>26454.4000545891</v>
       </c>
       <c r="F6" t="n">
-        <v>27193.75666650473</v>
+        <v>26454.40005458908</v>
       </c>
       <c r="G6" t="n">
-        <v>27193.75666650473</v>
+        <v>26454.40005458908</v>
       </c>
       <c r="H6" t="n">
-        <v>27193.75666650472</v>
+        <v>26454.4000545891</v>
       </c>
       <c r="I6" t="n">
-        <v>27193.75666650471</v>
+        <v>26454.40005458908</v>
       </c>
       <c r="J6" t="n">
-        <v>-83820.70867848545</v>
+        <v>-84560.06529040111</v>
       </c>
       <c r="K6" t="n">
-        <v>27193.75666650473</v>
+        <v>26454.4000545891</v>
       </c>
       <c r="L6" t="n">
-        <v>27193.75666650472</v>
+        <v>26454.40005458908</v>
       </c>
       <c r="M6" t="n">
-        <v>27193.75666650473</v>
+        <v>26454.4000545891</v>
       </c>
       <c r="N6" t="n">
-        <v>27193.75666650473</v>
+        <v>26454.40005458908</v>
       </c>
       <c r="O6" t="n">
-        <v>27193.75666650474</v>
+        <v>26454.40005458908</v>
       </c>
       <c r="P6" t="n">
-        <v>27193.75666650472</v>
+        <v>26454.4000545891</v>
       </c>
     </row>
   </sheetData>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34938,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35099,16 +35099,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35333,22 +35333,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35412,7 +35412,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35494,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35968,19 +35968,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36047,16 +36047,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -36123,22 +36123,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -36287,16 +36287,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36360,7 +36360,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>239.5100572483141</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>236.2898988798406</v>
@@ -36609,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36679,19 +36679,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36755,16 +36755,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>310.9272166398487</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37004,7 +37004,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37153,7 +37153,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37241,7 +37241,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37472,16 +37472,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37706,19 +37706,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37782,22 +37782,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>424.2958575201044</v>
@@ -38101,19 +38101,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -38195,7 +38195,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
